--- a/data/Eco_Intel2_clean.xlsx
+++ b/data/Eco_Intel2_clean.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U269"/>
+  <dimension ref="A1:U322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21716,6 +21716,4186 @@
         </is>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45806.72087962963</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>a00832958@tec.mx</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>LAE19 Y Master in International Management by Eada Business School Barcelona</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>4</v>
+      </c>
+      <c r="I270" t="n">
+        <v>4</v>
+      </c>
+      <c r="J270" t="n">
+        <v>5</v>
+      </c>
+      <c r="K270" t="n">
+        <v>4</v>
+      </c>
+      <c r="L270" t="n">
+        <v>5</v>
+      </c>
+      <c r="M270" t="n">
+        <v>5</v>
+      </c>
+      <c r="N270" t="n">
+        <v>4</v>
+      </c>
+      <c r="O270" t="n">
+        <v>3</v>
+      </c>
+      <c r="P270" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>4</v>
+      </c>
+      <c r="R270" t="n">
+        <v>4</v>
+      </c>
+      <c r="S270" t="n">
+        <v>4</v>
+      </c>
+      <c r="T270" t="n">
+        <v>9</v>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aprendí que la sostenibilidad va mas allá de cuidar el planeta tierra sino cuidar y hacer sostenible todas nuestras prácticas y estilo de vida. Si estamos bien nosotros mismos vamos a poder cuidar de los demás. </t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45806.72099537037</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>a00833252@tec.mx</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>5</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3</v>
+      </c>
+      <c r="K271" t="n">
+        <v>4</v>
+      </c>
+      <c r="L271" t="n">
+        <v>4</v>
+      </c>
+      <c r="M271" t="n">
+        <v>3</v>
+      </c>
+      <c r="N271" t="n">
+        <v>2</v>
+      </c>
+      <c r="O271" t="n">
+        <v>4</v>
+      </c>
+      <c r="P271" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>4</v>
+      </c>
+      <c r="R271" t="n">
+        <v>4</v>
+      </c>
+      <c r="S271" t="n">
+        <v>4</v>
+      </c>
+      <c r="T271" t="n">
+        <v>8</v>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muchas de nuestras materia buscaban incuclar el tema de sostenibilidad y reducir tu huella de carbono. Entonces aprendí mucho a crear soluciones de este tipo </t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45806.72188657407</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>a00835342@tec.mx</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>4</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3</v>
+      </c>
+      <c r="J272" t="n">
+        <v>5</v>
+      </c>
+      <c r="K272" t="n">
+        <v>4</v>
+      </c>
+      <c r="L272" t="n">
+        <v>4</v>
+      </c>
+      <c r="M272" t="n">
+        <v>4</v>
+      </c>
+      <c r="N272" t="n">
+        <v>4</v>
+      </c>
+      <c r="O272" t="n">
+        <v>3</v>
+      </c>
+      <c r="P272" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>4</v>
+      </c>
+      <c r="R272" t="n">
+        <v>3</v>
+      </c>
+      <c r="S272" t="n">
+        <v>3</v>
+      </c>
+      <c r="T272" t="n">
+        <v>8</v>
+      </c>
+      <c r="U272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45806.72215277778</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>a00571944@tec.mx</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>5</v>
+      </c>
+      <c r="I273" t="n">
+        <v>3</v>
+      </c>
+      <c r="J273" t="n">
+        <v>5</v>
+      </c>
+      <c r="K273" t="n">
+        <v>5</v>
+      </c>
+      <c r="L273" t="n">
+        <v>4</v>
+      </c>
+      <c r="M273" t="n">
+        <v>4</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3</v>
+      </c>
+      <c r="O273" t="n">
+        <v>2</v>
+      </c>
+      <c r="P273" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>4</v>
+      </c>
+      <c r="R273" t="n">
+        <v>5</v>
+      </c>
+      <c r="S273" t="n">
+        <v>2</v>
+      </c>
+      <c r="T273" t="n">
+        <v>8</v>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considero que el tema de responsabilidad social dentro de las empresas es un tema muy importante sobre todo para las problematicas futuras que tendremeos debido a la contaminacion que ha ido en aumento. Considero que en la carrera entendimos un poco sobre el tema sin embargo no lo vimos a fondo ya que es un area del negocio que necesita especializarse para resolver de manera correcta los problemas ambientales </t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45806.72289351852</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>a01571065@tec.mx</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>5</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3</v>
+      </c>
+      <c r="J274" t="n">
+        <v>5</v>
+      </c>
+      <c r="K274" t="n">
+        <v>2</v>
+      </c>
+      <c r="L274" t="n">
+        <v>5</v>
+      </c>
+      <c r="M274" t="n">
+        <v>2</v>
+      </c>
+      <c r="N274" t="n">
+        <v>2</v>
+      </c>
+      <c r="O274" t="n">
+        <v>4</v>
+      </c>
+      <c r="P274" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>5</v>
+      </c>
+      <c r="R274" t="n">
+        <v>4</v>
+      </c>
+      <c r="S274" t="n">
+        <v>4</v>
+      </c>
+      <c r="T274" t="n">
+        <v>7</v>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>Considero que mejoré significativamente mi forma de vivir hacia un estilo más sostenible, me volví más consciente gracias a la gente que conocí y los temas que vi en las clases, sin embargo, aún tengo áreas de oportunidad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45806.72293981481</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>a01570978@tec.mx</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
+        <v>5</v>
+      </c>
+      <c r="I275" t="n">
+        <v>3</v>
+      </c>
+      <c r="J275" t="n">
+        <v>5</v>
+      </c>
+      <c r="K275" t="n">
+        <v>3</v>
+      </c>
+      <c r="L275" t="n">
+        <v>5</v>
+      </c>
+      <c r="M275" t="n">
+        <v>4</v>
+      </c>
+      <c r="N275" t="n">
+        <v>4</v>
+      </c>
+      <c r="O275" t="n">
+        <v>4</v>
+      </c>
+      <c r="P275" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>5</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2</v>
+      </c>
+      <c r="S275" t="n">
+        <v>4</v>
+      </c>
+      <c r="T275" t="n">
+        <v>9</v>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>Por medio de clases de co creación de valor, y creación de valor compartido, aprendí la importancia de la sustentabilidad y la ecología.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45806.72377314815</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>a01571026@tec.mx</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H276" t="n">
+        <v>5</v>
+      </c>
+      <c r="I276" t="n">
+        <v>4</v>
+      </c>
+      <c r="J276" t="n">
+        <v>4</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>4</v>
+      </c>
+      <c r="M276" t="n">
+        <v>4</v>
+      </c>
+      <c r="N276" t="n">
+        <v>2</v>
+      </c>
+      <c r="O276" t="n">
+        <v>3</v>
+      </c>
+      <c r="P276" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>3</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3</v>
+      </c>
+      <c r="S276" t="n">
+        <v>3</v>
+      </c>
+      <c r="T276" t="n">
+        <v>6</v>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>Durante la carrera vemos temas como el capitalismo consciente o la economía circular, pero en realidad no hemos puesto a prueba estas estrategias para conocer sus resultados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45806.72380787037</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>a00832872@tec.mx</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>5</v>
+      </c>
+      <c r="I277" t="n">
+        <v>4</v>
+      </c>
+      <c r="J277" t="n">
+        <v>5</v>
+      </c>
+      <c r="K277" t="n">
+        <v>3</v>
+      </c>
+      <c r="L277" t="n">
+        <v>3</v>
+      </c>
+      <c r="M277" t="n">
+        <v>4</v>
+      </c>
+      <c r="N277" t="n">
+        <v>2</v>
+      </c>
+      <c r="O277" t="n">
+        <v>2</v>
+      </c>
+      <c r="P277" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>5</v>
+      </c>
+      <c r="R277" t="n">
+        <v>4</v>
+      </c>
+      <c r="S277" t="n">
+        <v>4</v>
+      </c>
+      <c r="T277" t="n">
+        <v>7</v>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>no recibí tanta educación, unidades de formación o reforzamiento de los temas sobre ecología más que una o dos optativas profesionales, algunas semanas tec o algunos temas dentro de uno o dos bloques pero no creo que sea suficiente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45806.72384259259</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>a01246317@tec.mx</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>23 a 24 años</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>5</v>
+      </c>
+      <c r="I278" t="n">
+        <v>3</v>
+      </c>
+      <c r="J278" t="n">
+        <v>4</v>
+      </c>
+      <c r="K278" t="n">
+        <v>4</v>
+      </c>
+      <c r="L278" t="n">
+        <v>5</v>
+      </c>
+      <c r="M278" t="n">
+        <v>4</v>
+      </c>
+      <c r="N278" t="n">
+        <v>4</v>
+      </c>
+      <c r="O278" t="n">
+        <v>5</v>
+      </c>
+      <c r="P278" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>5</v>
+      </c>
+      <c r="R278" t="n">
+        <v>3</v>
+      </c>
+      <c r="S278" t="n">
+        <v>4</v>
+      </c>
+      <c r="T278" t="n">
+        <v>9</v>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>mi mentalidad sobre la sostenibilidad cambió de verla como algo opcional a entenderla como una responsabilidad. Aprendí a tomar decisiones considerando el impacto social, ambiental y económico, adoptando hábitos más conscientes y promoviendo estrategias empresariales sostenibles con enfoque sistémico y de largo plazo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45806.72385416667</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>a01194771@tec.mx</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Canadiense</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>25 años o más</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>5</v>
+      </c>
+      <c r="I279" t="n">
+        <v>4</v>
+      </c>
+      <c r="J279" t="n">
+        <v>5</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2</v>
+      </c>
+      <c r="L279" t="n">
+        <v>5</v>
+      </c>
+      <c r="M279" t="n">
+        <v>5</v>
+      </c>
+      <c r="N279" t="n">
+        <v>4</v>
+      </c>
+      <c r="O279" t="n">
+        <v>5</v>
+      </c>
+      <c r="P279" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>4</v>
+      </c>
+      <c r="R279" t="n">
+        <v>2</v>
+      </c>
+      <c r="S279" t="n">
+        <v>4</v>
+      </c>
+      <c r="T279" t="n">
+        <v>10</v>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>Por mi interés propio y la cultura que a cierto grado es propulsada por el tec a crear impactos en beneficio del medio ambiente al igual que aspectos sociales. En lo personal pienso es mas importante el medio ambiente y siempre he tratado de poner de mi parte mientras que lo social esta en plano secundario. Mi lógica es que la sociedad puede agruparse, organizarse y cuidarse a si misma a cierto grado, como especie dominante y la mas nociva es nuestro deber cuidar al medio ambiente. Hay medio ambiente sin sociedad, pero no hay sociedad si no cuidamos el medio ambiente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45806.72416666667</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>a01540857@tec.mx</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>4</v>
+      </c>
+      <c r="I280" t="n">
+        <v>3</v>
+      </c>
+      <c r="J280" t="n">
+        <v>4</v>
+      </c>
+      <c r="K280" t="n">
+        <v>2</v>
+      </c>
+      <c r="L280" t="n">
+        <v>3</v>
+      </c>
+      <c r="M280" t="n">
+        <v>4</v>
+      </c>
+      <c r="N280" t="n">
+        <v>5</v>
+      </c>
+      <c r="O280" t="n">
+        <v>4</v>
+      </c>
+      <c r="P280" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>4</v>
+      </c>
+      <c r="R280" t="n">
+        <v>4</v>
+      </c>
+      <c r="S280" t="n">
+        <v>3</v>
+      </c>
+      <c r="T280" t="n">
+        <v>10</v>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>No tenia idea de la cantidad de contaminacion que generan las industrias hasta que lo vi durante mis clases y me hizo reflexionar sobre las marcas que consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45806.72418981481</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>a00834404@tec.mx</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>LAE</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>4</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="n">
+        <v>3</v>
+      </c>
+      <c r="L281" t="n">
+        <v>4</v>
+      </c>
+      <c r="M281" t="n">
+        <v>2</v>
+      </c>
+      <c r="N281" t="n">
+        <v>4</v>
+      </c>
+      <c r="O281" t="n">
+        <v>3</v>
+      </c>
+      <c r="P281" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>5</v>
+      </c>
+      <c r="R281" t="n">
+        <v>4</v>
+      </c>
+      <c r="S281" t="n">
+        <v>4</v>
+      </c>
+      <c r="T281" t="n">
+        <v>9</v>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>Dado a que dentro de nuestras actividades y modelos de negocio a implementar siempre buscamos tener un impacto positivo en el ámbito social y ambiental</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45806.72421296296</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>a01233993@tec.mx</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>4</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>5</v>
+      </c>
+      <c r="K282" t="n">
+        <v>4</v>
+      </c>
+      <c r="L282" t="n">
+        <v>4</v>
+      </c>
+      <c r="M282" t="n">
+        <v>3</v>
+      </c>
+      <c r="N282" t="n">
+        <v>2</v>
+      </c>
+      <c r="O282" t="n">
+        <v>3</v>
+      </c>
+      <c r="P282" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>4</v>
+      </c>
+      <c r="R282" t="n">
+        <v>3</v>
+      </c>
+      <c r="S282" t="n">
+        <v>4</v>
+      </c>
+      <c r="T282" t="n">
+        <v>8</v>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>En la mayoría de las propuestas que tenemos que elaborar para los socioformadores la parte de sostenibilidad es fundamental para asegurar su posicionamiento y responsabilidad social.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45806.72424768518</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>a01198051@tec.mx</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>5</v>
+      </c>
+      <c r="I283" t="n">
+        <v>3</v>
+      </c>
+      <c r="J283" t="n">
+        <v>5</v>
+      </c>
+      <c r="K283" t="n">
+        <v>5</v>
+      </c>
+      <c r="L283" t="n">
+        <v>5</v>
+      </c>
+      <c r="M283" t="n">
+        <v>5</v>
+      </c>
+      <c r="N283" t="n">
+        <v>3</v>
+      </c>
+      <c r="O283" t="n">
+        <v>3</v>
+      </c>
+      <c r="P283" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>5</v>
+      </c>
+      <c r="R283" t="n">
+        <v>3</v>
+      </c>
+      <c r="S283" t="n">
+        <v>4</v>
+      </c>
+      <c r="T283" t="n">
+        <v>8</v>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mis proyectos constantemente nos solicitaban incluir un parte de sostenibilidad y ecología  para  tener un balance en cuento nuestra propuesta y pensamientos </t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45806.72431712963</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>a00831144@tec.mx</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>4</v>
+      </c>
+      <c r="I284" t="n">
+        <v>3</v>
+      </c>
+      <c r="J284" t="n">
+        <v>5</v>
+      </c>
+      <c r="K284" t="n">
+        <v>2</v>
+      </c>
+      <c r="L284" t="n">
+        <v>4</v>
+      </c>
+      <c r="M284" t="n">
+        <v>4</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+      <c r="O284" t="n">
+        <v>3</v>
+      </c>
+      <c r="P284" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>4</v>
+      </c>
+      <c r="R284" t="n">
+        <v>4</v>
+      </c>
+      <c r="S284" t="n">
+        <v>4</v>
+      </c>
+      <c r="T284" t="n">
+        <v>8</v>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>Llegué a tener una materia de ecología aunque no estaba relacionada a mi carrera universitaria (LAET), pero si llegué a adquirir nuevos conocimientos y se abrió más mi panorama sobre este tema y me ayudó a reflexionar más sobre la conciencia de nuestras actividades y como impactan al medio ambiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45806.7244212963</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>a01245639@tec.mx</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>5</v>
+      </c>
+      <c r="I285" t="n">
+        <v>3</v>
+      </c>
+      <c r="J285" t="n">
+        <v>5</v>
+      </c>
+      <c r="K285" t="n">
+        <v>5</v>
+      </c>
+      <c r="L285" t="n">
+        <v>5</v>
+      </c>
+      <c r="M285" t="n">
+        <v>3</v>
+      </c>
+      <c r="N285" t="n">
+        <v>3</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1</v>
+      </c>
+      <c r="P285" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>5</v>
+      </c>
+      <c r="R285" t="n">
+        <v>5</v>
+      </c>
+      <c r="S285" t="n">
+        <v>5</v>
+      </c>
+      <c r="T285" t="n">
+        <v>6</v>
+      </c>
+      <c r="U285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45806.72444444444</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>a01177954@tec.mx</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>5</v>
+      </c>
+      <c r="I286" t="n">
+        <v>3</v>
+      </c>
+      <c r="J286" t="n">
+        <v>5</v>
+      </c>
+      <c r="K286" t="n">
+        <v>4</v>
+      </c>
+      <c r="L286" t="n">
+        <v>5</v>
+      </c>
+      <c r="M286" t="n">
+        <v>4</v>
+      </c>
+      <c r="N286" t="n">
+        <v>4</v>
+      </c>
+      <c r="O286" t="n">
+        <v>3</v>
+      </c>
+      <c r="P286" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>4</v>
+      </c>
+      <c r="R286" t="n">
+        <v>4</v>
+      </c>
+      <c r="S286" t="n">
+        <v>2</v>
+      </c>
+      <c r="T286" t="n">
+        <v>7</v>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>Varios proyectos nos ayudaron a crear conciencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45806.72555555555</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>a00829863@tec.mx</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>4</v>
+      </c>
+      <c r="I287" t="n">
+        <v>4</v>
+      </c>
+      <c r="J287" t="n">
+        <v>5</v>
+      </c>
+      <c r="K287" t="n">
+        <v>5</v>
+      </c>
+      <c r="L287" t="n">
+        <v>5</v>
+      </c>
+      <c r="M287" t="n">
+        <v>4</v>
+      </c>
+      <c r="N287" t="n">
+        <v>5</v>
+      </c>
+      <c r="O287" t="n">
+        <v>4</v>
+      </c>
+      <c r="P287" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>4</v>
+      </c>
+      <c r="R287" t="n">
+        <v>4</v>
+      </c>
+      <c r="S287" t="n">
+        <v>4</v>
+      </c>
+      <c r="T287" t="n">
+        <v>9</v>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>El por qué de mi respuesta es debido a mi involucramiento en distintos proyectos de sostenibilidad o responsabilidad social corporativa, en la que he generado una mayor sensibilidad en los distintos aspectos que rodean el tema. Aunado a esto, el ver temas como el triple bottom line, capitalismo consciente y la construcción de canvas sociales de negocios fueron forjando progresivamente un criterio personal en cuanto a este tema, a pesar de que mi carrera (Licenciatura en Estrategia y Transformación de Negocios) no forme el mayor expertise en el plan académico cursado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45806.72560185185</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>a01625508@tec.mx</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>5</v>
+      </c>
+      <c r="I288" t="n">
+        <v>5</v>
+      </c>
+      <c r="J288" t="n">
+        <v>5</v>
+      </c>
+      <c r="K288" t="n">
+        <v>5</v>
+      </c>
+      <c r="L288" t="n">
+        <v>5</v>
+      </c>
+      <c r="M288" t="n">
+        <v>4</v>
+      </c>
+      <c r="N288" t="n">
+        <v>5</v>
+      </c>
+      <c r="O288" t="n">
+        <v>5</v>
+      </c>
+      <c r="P288" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>5</v>
+      </c>
+      <c r="R288" t="n">
+        <v>5</v>
+      </c>
+      <c r="S288" t="n">
+        <v>5</v>
+      </c>
+      <c r="T288" t="n">
+        <v>10</v>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>Durante mi carrera profesional comprendí la conexión entre nuestras decisiones diarias y su impacto en el medio ambiente. Aprendí sobre consumo responsable, economía circular y sostenibilidad empresarial, lo cual me motivó a adoptar hábitos más conscientes, como reducir el uso de plásticos, optar por transporte compartido y apoyar productos locales. Estos aprendizajes transformaron mi forma de pensar y actuar en lo personal y profesional</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45806.72609953704</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>a00833101@tec.mx</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H289" t="n">
+        <v>4</v>
+      </c>
+      <c r="I289" t="n">
+        <v>3</v>
+      </c>
+      <c r="J289" t="n">
+        <v>5</v>
+      </c>
+      <c r="K289" t="n">
+        <v>4</v>
+      </c>
+      <c r="L289" t="n">
+        <v>4</v>
+      </c>
+      <c r="M289" t="n">
+        <v>4</v>
+      </c>
+      <c r="N289" t="n">
+        <v>4</v>
+      </c>
+      <c r="O289" t="n">
+        <v>2</v>
+      </c>
+      <c r="P289" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>4</v>
+      </c>
+      <c r="R289" t="n">
+        <v>4</v>
+      </c>
+      <c r="S289" t="n">
+        <v>4</v>
+      </c>
+      <c r="T289" t="n">
+        <v>10</v>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45806.72628472222</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>a00832733@tec.mx</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>4</v>
+      </c>
+      <c r="I290" t="n">
+        <v>3</v>
+      </c>
+      <c r="J290" t="n">
+        <v>5</v>
+      </c>
+      <c r="K290" t="n">
+        <v>5</v>
+      </c>
+      <c r="L290" t="n">
+        <v>5</v>
+      </c>
+      <c r="M290" t="n">
+        <v>3</v>
+      </c>
+      <c r="N290" t="n">
+        <v>3</v>
+      </c>
+      <c r="O290" t="n">
+        <v>4</v>
+      </c>
+      <c r="P290" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>4</v>
+      </c>
+      <c r="R290" t="n">
+        <v>4</v>
+      </c>
+      <c r="S290" t="n">
+        <v>3</v>
+      </c>
+      <c r="T290" t="n">
+        <v>7</v>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>En la carrera hemos visto mucho la importancia de voltear a ver el lado ambiental en las empresas, en cuanto a su impacto tanto positivo como negativo y pensar en ciertas estrategias relacionadas al impacto positivo en la cadena de valor al tener en mente el impacto ambiental. Del mimo modo que hemos visto respecto a la certificación de empresas B y cómo se puede beneficiar la empresa misma al voltear a ver al medio ambiente como un stakeholder en conjunto y en parte relacionado con la sociedad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45806.72637731482</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>a01177711@tec.mx</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Estrategia y Transformación de Negocios</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>5</v>
+      </c>
+      <c r="I291" t="n">
+        <v>3</v>
+      </c>
+      <c r="J291" t="n">
+        <v>4</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2</v>
+      </c>
+      <c r="M291" t="n">
+        <v>5</v>
+      </c>
+      <c r="N291" t="n">
+        <v>4</v>
+      </c>
+      <c r="O291" t="n">
+        <v>2</v>
+      </c>
+      <c r="P291" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>3</v>
+      </c>
+      <c r="R291" t="n">
+        <v>4</v>
+      </c>
+      <c r="S291" t="n">
+        <v>3</v>
+      </c>
+      <c r="T291" t="n">
+        <v>9</v>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>Todos nuestros proyectos con empresas van de la mano con propuestas sostenibles y verdes siempre buscando responsabilidad social y ambiental</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45806.72695601852</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>a00834802@tec.mx</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>4</v>
+      </c>
+      <c r="I292" t="n">
+        <v>3</v>
+      </c>
+      <c r="J292" t="n">
+        <v>5</v>
+      </c>
+      <c r="K292" t="n">
+        <v>4</v>
+      </c>
+      <c r="L292" t="n">
+        <v>5</v>
+      </c>
+      <c r="M292" t="n">
+        <v>2</v>
+      </c>
+      <c r="N292" t="n">
+        <v>5</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1</v>
+      </c>
+      <c r="P292" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>3</v>
+      </c>
+      <c r="R292" t="n">
+        <v>5</v>
+      </c>
+      <c r="S292" t="n">
+        <v>5</v>
+      </c>
+      <c r="T292" t="n">
+        <v>10</v>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>Antes no tenía consciencia sobre el cuidado del medio ambiente, ni del cuidado de la salud de las personas tanto en lo personal como en el ambiente laboral. Aprendí que toda empresa debe de seguir las normativas ambientales, alinearse a los ODS y el convertirse en empresas social y ambientalmente responsables.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45806.73008101852</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>a01571149@tec.mx</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>5</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>4</v>
+      </c>
+      <c r="K293" t="n">
+        <v>2</v>
+      </c>
+      <c r="L293" t="n">
+        <v>4</v>
+      </c>
+      <c r="M293" t="n">
+        <v>5</v>
+      </c>
+      <c r="N293" t="n">
+        <v>2</v>
+      </c>
+      <c r="O293" t="n">
+        <v>3</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>4</v>
+      </c>
+      <c r="R293" t="n">
+        <v>4</v>
+      </c>
+      <c r="S293" t="n">
+        <v>4</v>
+      </c>
+      <c r="T293" t="n">
+        <v>10</v>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soy muy consciente que mis acciones tienen un alto impacto en mi entorno y que solo tenemos un planeta para vivir. </t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45806.88914351852</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>a01177975@tec.mx</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>5</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3</v>
+      </c>
+      <c r="J294" t="n">
+        <v>5</v>
+      </c>
+      <c r="K294" t="n">
+        <v>3</v>
+      </c>
+      <c r="L294" t="n">
+        <v>4</v>
+      </c>
+      <c r="M294" t="n">
+        <v>4</v>
+      </c>
+      <c r="N294" t="n">
+        <v>4</v>
+      </c>
+      <c r="O294" t="n">
+        <v>5</v>
+      </c>
+      <c r="P294" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>4</v>
+      </c>
+      <c r="R294" t="n">
+        <v>4</v>
+      </c>
+      <c r="S294" t="n">
+        <v>5</v>
+      </c>
+      <c r="T294" t="n">
+        <v>9</v>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En realidad he tenido el privilegio de conocer el tema desde que tengo memoria. Sin embargo, las clases que he tomado a lo largo de mi carrera profesional han enriquecido mi conocimiento, expandiendo mi razonamiento a investigar a profundidad ciertas prácticas, conocer acerca de las empresas multinacionales y como estas empresas son las que mueven al mundo. Dentro de toda su cadena de valor, impacta directa e indirectamente al resto del mundo. </t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45812.4721412037</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>a01284733@tec.mx</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>5</v>
+      </c>
+      <c r="I295" t="n">
+        <v>4</v>
+      </c>
+      <c r="J295" t="n">
+        <v>5</v>
+      </c>
+      <c r="K295" t="n">
+        <v>5</v>
+      </c>
+      <c r="L295" t="n">
+        <v>5</v>
+      </c>
+      <c r="M295" t="n">
+        <v>4</v>
+      </c>
+      <c r="N295" t="n">
+        <v>4</v>
+      </c>
+      <c r="O295" t="n">
+        <v>4</v>
+      </c>
+      <c r="P295" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>4</v>
+      </c>
+      <c r="R295" t="n">
+        <v>5</v>
+      </c>
+      <c r="S295" t="n">
+        <v>4</v>
+      </c>
+      <c r="T295" t="n">
+        <v>9</v>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En los temas de mi clase y optativas junto a grupos estudiantiles mi perspectiva fue ampliada </t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45812.47278935185</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>a00232347@tec.mx</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>4</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3</v>
+      </c>
+      <c r="J296" t="n">
+        <v>3</v>
+      </c>
+      <c r="K296" t="n">
+        <v>4</v>
+      </c>
+      <c r="L296" t="n">
+        <v>5</v>
+      </c>
+      <c r="M296" t="n">
+        <v>5</v>
+      </c>
+      <c r="N296" t="n">
+        <v>4</v>
+      </c>
+      <c r="O296" t="n">
+        <v>5</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>4</v>
+      </c>
+      <c r="R296" t="n">
+        <v>3</v>
+      </c>
+      <c r="S296" t="n">
+        <v>4</v>
+      </c>
+      <c r="T296" t="n">
+        <v>9</v>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A lo largo de mis 4 años, comprendí que la sostenibilidad no solo es una tendencia, sino una necesidad para garantizar el bienestar social, económico y ambiental. Aprendí a integrar prácticas sostenibles en la toma de decisiones, identificar el impacto de las actividades empresariales y a valorar el equilibrio entre desarrollo y conservación. </t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45812.47336805556</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>a01566942@tec.mx</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>5</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3</v>
+      </c>
+      <c r="J297" t="n">
+        <v>4</v>
+      </c>
+      <c r="K297" t="n">
+        <v>5</v>
+      </c>
+      <c r="L297" t="n">
+        <v>4</v>
+      </c>
+      <c r="M297" t="n">
+        <v>3</v>
+      </c>
+      <c r="N297" t="n">
+        <v>4</v>
+      </c>
+      <c r="O297" t="n">
+        <v>3</v>
+      </c>
+      <c r="P297" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>3</v>
+      </c>
+      <c r="R297" t="n">
+        <v>3</v>
+      </c>
+      <c r="S297" t="n">
+        <v>5</v>
+      </c>
+      <c r="T297" t="n">
+        <v>7</v>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estuve en una optativa que se enfocaba en el medio ambiente y lo ecológico </t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45812.4734837963</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>a00832755@tec.mx</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H298" t="n">
+        <v>5</v>
+      </c>
+      <c r="I298" t="n">
+        <v>4</v>
+      </c>
+      <c r="J298" t="n">
+        <v>5</v>
+      </c>
+      <c r="K298" t="n">
+        <v>4</v>
+      </c>
+      <c r="L298" t="n">
+        <v>4</v>
+      </c>
+      <c r="M298" t="n">
+        <v>5</v>
+      </c>
+      <c r="N298" t="n">
+        <v>4</v>
+      </c>
+      <c r="O298" t="n">
+        <v>5</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>4</v>
+      </c>
+      <c r="R298" t="n">
+        <v>3</v>
+      </c>
+      <c r="S298" t="n">
+        <v>4</v>
+      </c>
+      <c r="T298" t="n">
+        <v>9</v>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es problema que puede afectar a las futuras generaciones </t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45812.47350694444</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>a01570919@tec.mx</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>A01570919</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>23 a 24 años</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>2</v>
+      </c>
+      <c r="I299" t="n">
+        <v>4</v>
+      </c>
+      <c r="J299" t="n">
+        <v>4</v>
+      </c>
+      <c r="K299" t="n">
+        <v>4</v>
+      </c>
+      <c r="L299" t="n">
+        <v>3</v>
+      </c>
+      <c r="M299" t="n">
+        <v>3</v>
+      </c>
+      <c r="N299" t="n">
+        <v>2</v>
+      </c>
+      <c r="O299" t="n">
+        <v>3</v>
+      </c>
+      <c r="P299" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>5</v>
+      </c>
+      <c r="R299" t="n">
+        <v>5</v>
+      </c>
+      <c r="S299" t="n">
+        <v>5</v>
+      </c>
+      <c r="T299" t="n">
+        <v>10</v>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>Mi forma de ver la sostenibilidad cambió mucho durante la carrera. Ahora entiendo que no solo se trata del medio ambiente, sino de crear valor económico y social de forma responsable. Aún me falta seguir aplicándolo más, pero ya forma parte de cómo pienso y actúo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45812.47358796297</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>a01236425@tec.mx</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>5</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3</v>
+      </c>
+      <c r="J300" t="n">
+        <v>4</v>
+      </c>
+      <c r="K300" t="n">
+        <v>4</v>
+      </c>
+      <c r="L300" t="n">
+        <v>5</v>
+      </c>
+      <c r="M300" t="n">
+        <v>4</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+      <c r="O300" t="n">
+        <v>2</v>
+      </c>
+      <c r="P300" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>3</v>
+      </c>
+      <c r="R300" t="n">
+        <v>4</v>
+      </c>
+      <c r="S300" t="n">
+        <v>3</v>
+      </c>
+      <c r="T300" t="n">
+        <v>10</v>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yo antes no le tenia tanta importancia a la sostenibilidad pero a través de la carrera me hicieron abrir los ojos y me hacen enfocarme ya en todo incluyendo siempre la sostenibilidad. </t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45812.47369212963</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>a00835330@tec.mx</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Estrategia y Transformación de Negocios</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>3</v>
+      </c>
+      <c r="I301" t="n">
+        <v>2</v>
+      </c>
+      <c r="J301" t="n">
+        <v>5</v>
+      </c>
+      <c r="K301" t="n">
+        <v>4</v>
+      </c>
+      <c r="L301" t="n">
+        <v>3</v>
+      </c>
+      <c r="M301" t="n">
+        <v>2</v>
+      </c>
+      <c r="N301" t="n">
+        <v>5</v>
+      </c>
+      <c r="O301" t="n">
+        <v>5</v>
+      </c>
+      <c r="P301" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>4</v>
+      </c>
+      <c r="R301" t="n">
+        <v>3</v>
+      </c>
+      <c r="S301" t="n">
+        <v>2</v>
+      </c>
+      <c r="T301" t="n">
+        <v>8</v>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45812.4737037037</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>a01571458@tec.mx</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H302" t="n">
+        <v>5</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>5</v>
+      </c>
+      <c r="K302" t="n">
+        <v>5</v>
+      </c>
+      <c r="L302" t="n">
+        <v>3</v>
+      </c>
+      <c r="M302" t="n">
+        <v>4</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3</v>
+      </c>
+      <c r="O302" t="n">
+        <v>3</v>
+      </c>
+      <c r="P302" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>4</v>
+      </c>
+      <c r="R302" t="n">
+        <v>4</v>
+      </c>
+      <c r="S302" t="n">
+        <v>3</v>
+      </c>
+      <c r="T302" t="n">
+        <v>8</v>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considero q yo ya hacía varias cosas para la sostenibilidad pero también me ayudó un poco el tec y una amiga q estudia IDS ahí en el tec también me ayudó mucho </t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45812.47373842593</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>a01254032@tec.mx</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H303" t="n">
+        <v>4</v>
+      </c>
+      <c r="I303" t="n">
+        <v>4</v>
+      </c>
+      <c r="J303" t="n">
+        <v>2</v>
+      </c>
+      <c r="K303" t="n">
+        <v>5</v>
+      </c>
+      <c r="L303" t="n">
+        <v>5</v>
+      </c>
+      <c r="M303" t="n">
+        <v>5</v>
+      </c>
+      <c r="N303" t="n">
+        <v>5</v>
+      </c>
+      <c r="O303" t="n">
+        <v>5</v>
+      </c>
+      <c r="P303" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>5</v>
+      </c>
+      <c r="R303" t="n">
+        <v>5</v>
+      </c>
+      <c r="S303" t="n">
+        <v>5</v>
+      </c>
+      <c r="T303" t="n">
+        <v>10</v>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>todo al 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45812.47407407407</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>a00835124@tec.mx</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>23 a 24 años</t>
+        </is>
+      </c>
+      <c r="H304" t="n">
+        <v>5</v>
+      </c>
+      <c r="I304" t="n">
+        <v>4</v>
+      </c>
+      <c r="J304" t="n">
+        <v>4</v>
+      </c>
+      <c r="K304" t="n">
+        <v>4</v>
+      </c>
+      <c r="L304" t="n">
+        <v>2</v>
+      </c>
+      <c r="M304" t="n">
+        <v>5</v>
+      </c>
+      <c r="N304" t="n">
+        <v>5</v>
+      </c>
+      <c r="O304" t="n">
+        <v>2</v>
+      </c>
+      <c r="P304" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>5</v>
+      </c>
+      <c r="R304" t="n">
+        <v>4</v>
+      </c>
+      <c r="S304" t="n">
+        <v>4</v>
+      </c>
+      <c r="T304" t="n">
+        <v>6</v>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>Te hacen ver la realidad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45812.47439814815</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>a01562855@tec.mx</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H305" t="n">
+        <v>5</v>
+      </c>
+      <c r="I305" t="n">
+        <v>4</v>
+      </c>
+      <c r="J305" t="n">
+        <v>5</v>
+      </c>
+      <c r="K305" t="n">
+        <v>3</v>
+      </c>
+      <c r="L305" t="n">
+        <v>5</v>
+      </c>
+      <c r="M305" t="n">
+        <v>5</v>
+      </c>
+      <c r="N305" t="n">
+        <v>5</v>
+      </c>
+      <c r="O305" t="n">
+        <v>4</v>
+      </c>
+      <c r="P305" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>3</v>
+      </c>
+      <c r="R305" t="n">
+        <v>5</v>
+      </c>
+      <c r="S305" t="n">
+        <v>5</v>
+      </c>
+      <c r="T305" t="n">
+        <v>9</v>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>Aprendi mucho de cosas nuevas</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45812.47471064814</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>a01740731@tec.mx</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H306" t="n">
+        <v>4</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2</v>
+      </c>
+      <c r="J306" t="n">
+        <v>4</v>
+      </c>
+      <c r="K306" t="n">
+        <v>4</v>
+      </c>
+      <c r="L306" t="n">
+        <v>5</v>
+      </c>
+      <c r="M306" t="n">
+        <v>3</v>
+      </c>
+      <c r="N306" t="n">
+        <v>4</v>
+      </c>
+      <c r="O306" t="n">
+        <v>4</v>
+      </c>
+      <c r="P306" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>4</v>
+      </c>
+      <c r="R306" t="n">
+        <v>4</v>
+      </c>
+      <c r="S306" t="n">
+        <v>3</v>
+      </c>
+      <c r="T306" t="n">
+        <v>8</v>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN VARIAS OCASIONES DE EN MI CARRERA INCLUÍAN ODS Y NEGOCIOS SOSTENIBLES POR LO QUE ENTENDÍ LA IMPORTANCIA DE INCLUIR ESTO EN LOS NEGOCIOS Y VER MÁS ALLÁ DE HACER DINERO </t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45812.47483796296</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>a01254024@tec.mx</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H307" t="n">
+        <v>5</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3</v>
+      </c>
+      <c r="J307" t="n">
+        <v>4</v>
+      </c>
+      <c r="K307" t="n">
+        <v>4</v>
+      </c>
+      <c r="L307" t="n">
+        <v>4</v>
+      </c>
+      <c r="M307" t="n">
+        <v>4</v>
+      </c>
+      <c r="N307" t="n">
+        <v>3</v>
+      </c>
+      <c r="O307" t="n">
+        <v>3</v>
+      </c>
+      <c r="P307" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>3</v>
+      </c>
+      <c r="R307" t="n">
+        <v>3</v>
+      </c>
+      <c r="S307" t="n">
+        <v>2</v>
+      </c>
+      <c r="T307" t="n">
+        <v>8</v>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>Creo que no impacto como tal en mis prácticas sostenibles, pero si me ayudo a ver como las empresas lo pueden implementar y aprendi mucho a cerca de eso</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45812.47503472222</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>a00833331@tec.mx</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H308" t="n">
+        <v>4</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3</v>
+      </c>
+      <c r="J308" t="n">
+        <v>5</v>
+      </c>
+      <c r="K308" t="n">
+        <v>3</v>
+      </c>
+      <c r="L308" t="n">
+        <v>4</v>
+      </c>
+      <c r="M308" t="n">
+        <v>4</v>
+      </c>
+      <c r="N308" t="n">
+        <v>4</v>
+      </c>
+      <c r="O308" t="n">
+        <v>5</v>
+      </c>
+      <c r="P308" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>4</v>
+      </c>
+      <c r="R308" t="n">
+        <v>3</v>
+      </c>
+      <c r="S308" t="n">
+        <v>4</v>
+      </c>
+      <c r="T308" t="n">
+        <v>10</v>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En el área de negocios siempre nos inculcaron la importancia de que una empresa sea socialmente responsable o genere valor compartido a la sociedad y en confomre nos enseñaban eso, los principales factores que vismos fueron el factor ambiental y el apoyo a la compra de productos locales, es por ello que ahora soy más conciente del  imapcto que genero en el medio ambiente y en mi sociedad tratando de tomar decisiones que nos ayuden a tener un mundo más sostenible al largo plazo. </t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45812.47571759259</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>a01177708@tec.mx</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H309" t="n">
+        <v>4</v>
+      </c>
+      <c r="I309" t="n">
+        <v>4</v>
+      </c>
+      <c r="J309" t="n">
+        <v>4</v>
+      </c>
+      <c r="K309" t="n">
+        <v>3</v>
+      </c>
+      <c r="L309" t="n">
+        <v>4</v>
+      </c>
+      <c r="M309" t="n">
+        <v>2</v>
+      </c>
+      <c r="N309" t="n">
+        <v>4</v>
+      </c>
+      <c r="O309" t="n">
+        <v>2</v>
+      </c>
+      <c r="P309" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>4</v>
+      </c>
+      <c r="R309" t="n">
+        <v>2</v>
+      </c>
+      <c r="S309" t="n">
+        <v>2</v>
+      </c>
+      <c r="T309" t="n">
+        <v>8</v>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mayoría de los proyectos fueron relacionados a sostenibilidad, estas investigaciones me hicieron entrar en razón sobre el tema y la importancia de esta. </t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45812.47585648148</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>a00833462@tec.mx</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H310" t="n">
+        <v>5</v>
+      </c>
+      <c r="I310" t="n">
+        <v>3</v>
+      </c>
+      <c r="J310" t="n">
+        <v>4</v>
+      </c>
+      <c r="K310" t="n">
+        <v>4</v>
+      </c>
+      <c r="L310" t="n">
+        <v>4</v>
+      </c>
+      <c r="M310" t="n">
+        <v>3</v>
+      </c>
+      <c r="N310" t="n">
+        <v>2</v>
+      </c>
+      <c r="O310" t="n">
+        <v>2</v>
+      </c>
+      <c r="P310" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>3</v>
+      </c>
+      <c r="R310" t="n">
+        <v>3</v>
+      </c>
+      <c r="S310" t="n">
+        <v>2</v>
+      </c>
+      <c r="T310" t="n">
+        <v>7</v>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>Considero que mi mentalidad y comportamiento respecto a la sostenibilidad han cambiado en un 7 porque, a lo largo de mi formación profesional, adquirí conciencia sobre la importancia de implementar prácticas sostenibles. He incorporado varias de estas prácticas en mi vida diaria y profesional, aunque reconozco que aún hay áreas en las que puedo seguir mejorando</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45812.47591435185</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>a01277249@tec.mx</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H311" t="n">
+        <v>5</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3</v>
+      </c>
+      <c r="J311" t="n">
+        <v>5</v>
+      </c>
+      <c r="K311" t="n">
+        <v>5</v>
+      </c>
+      <c r="L311" t="n">
+        <v>5</v>
+      </c>
+      <c r="M311" t="n">
+        <v>5</v>
+      </c>
+      <c r="N311" t="n">
+        <v>4</v>
+      </c>
+      <c r="O311" t="n">
+        <v>4</v>
+      </c>
+      <c r="P311" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>5</v>
+      </c>
+      <c r="R311" t="n">
+        <v>5</v>
+      </c>
+      <c r="S311" t="n">
+        <v>5</v>
+      </c>
+      <c r="T311" t="n">
+        <v>10</v>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siempre había alguna clase relacionada a la agenda 2030 y los ODS, además de tratar de hacer consciencia </t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45812.47612268518</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>a01236450@tec.mx</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>23 a 24 años</t>
+        </is>
+      </c>
+      <c r="H312" t="n">
+        <v>4</v>
+      </c>
+      <c r="I312" t="n">
+        <v>4</v>
+      </c>
+      <c r="J312" t="n">
+        <v>5</v>
+      </c>
+      <c r="K312" t="n">
+        <v>4</v>
+      </c>
+      <c r="L312" t="n">
+        <v>4</v>
+      </c>
+      <c r="M312" t="n">
+        <v>4</v>
+      </c>
+      <c r="N312" t="n">
+        <v>3</v>
+      </c>
+      <c r="O312" t="n">
+        <v>4</v>
+      </c>
+      <c r="P312" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>4</v>
+      </c>
+      <c r="R312" t="n">
+        <v>4</v>
+      </c>
+      <c r="S312" t="n">
+        <v>4</v>
+      </c>
+      <c r="T312" t="n">
+        <v>9</v>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>me dio una nueva perspectiva de los negocios sostenibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45812.47631944445</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>a01570982@tec.mx</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>23 a 24 años</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>4</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2</v>
+      </c>
+      <c r="J313" t="n">
+        <v>5</v>
+      </c>
+      <c r="K313" t="n">
+        <v>2</v>
+      </c>
+      <c r="L313" t="n">
+        <v>5</v>
+      </c>
+      <c r="M313" t="n">
+        <v>4</v>
+      </c>
+      <c r="N313" t="n">
+        <v>3</v>
+      </c>
+      <c r="O313" t="n">
+        <v>3</v>
+      </c>
+      <c r="P313" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>4</v>
+      </c>
+      <c r="R313" t="n">
+        <v>3</v>
+      </c>
+      <c r="S313" t="n">
+        <v>2</v>
+      </c>
+      <c r="T313" t="n">
+        <v>9</v>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>Mi carrera me permitió profundizar en la importancia de la responsabilidad en las decisiones de compra y cómo estas pueden influir directamente en la responsabilidad social.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45812.47631944445</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>a01742403@tec.mx</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H314" t="n">
+        <v>5</v>
+      </c>
+      <c r="I314" t="n">
+        <v>4</v>
+      </c>
+      <c r="J314" t="n">
+        <v>5</v>
+      </c>
+      <c r="K314" t="n">
+        <v>4</v>
+      </c>
+      <c r="L314" t="n">
+        <v>5</v>
+      </c>
+      <c r="M314" t="n">
+        <v>4</v>
+      </c>
+      <c r="N314" t="n">
+        <v>3</v>
+      </c>
+      <c r="O314" t="n">
+        <v>4</v>
+      </c>
+      <c r="P314" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>5</v>
+      </c>
+      <c r="R314" t="n">
+        <v>4</v>
+      </c>
+      <c r="S314" t="n">
+        <v>5</v>
+      </c>
+      <c r="T314" t="n">
+        <v>9</v>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>Tuvimos muchas clases con enfoque en la sostenibilidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45812.47649305555</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>a01285125@tec.mx</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H315" t="n">
+        <v>4</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>5</v>
+      </c>
+      <c r="K315" t="n">
+        <v>4</v>
+      </c>
+      <c r="L315" t="n">
+        <v>3</v>
+      </c>
+      <c r="M315" t="n">
+        <v>4</v>
+      </c>
+      <c r="N315" t="n">
+        <v>2</v>
+      </c>
+      <c r="O315" t="n">
+        <v>4</v>
+      </c>
+      <c r="P315" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>4</v>
+      </c>
+      <c r="R315" t="n">
+        <v>4</v>
+      </c>
+      <c r="S315" t="n">
+        <v>4</v>
+      </c>
+      <c r="T315" t="n">
+        <v>10</v>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es muy importante para el día a día y cualquier cosa a la que te dediques puedes hacer algo mínimo para ayudar a la sostenibilidad y es de gran ayuda </t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45812.47665509259</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>a00835135@tec.mx</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Ecuatoriana</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>23 a 24 años</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>4</v>
+      </c>
+      <c r="I316" t="n">
+        <v>4</v>
+      </c>
+      <c r="J316" t="n">
+        <v>5</v>
+      </c>
+      <c r="K316" t="n">
+        <v>3</v>
+      </c>
+      <c r="L316" t="n">
+        <v>5</v>
+      </c>
+      <c r="M316" t="n">
+        <v>4</v>
+      </c>
+      <c r="N316" t="n">
+        <v>3</v>
+      </c>
+      <c r="O316" t="n">
+        <v>3</v>
+      </c>
+      <c r="P316" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>4</v>
+      </c>
+      <c r="R316" t="n">
+        <v>4</v>
+      </c>
+      <c r="S316" t="n">
+        <v>4</v>
+      </c>
+      <c r="T316" t="n">
+        <v>8</v>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>Creo que si cambió pero no al 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45812.47688657408</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>a01285036@tec.mx</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H317" t="n">
+        <v>4</v>
+      </c>
+      <c r="I317" t="n">
+        <v>4</v>
+      </c>
+      <c r="J317" t="n">
+        <v>5</v>
+      </c>
+      <c r="K317" t="n">
+        <v>3</v>
+      </c>
+      <c r="L317" t="n">
+        <v>5</v>
+      </c>
+      <c r="M317" t="n">
+        <v>4</v>
+      </c>
+      <c r="N317" t="n">
+        <v>3</v>
+      </c>
+      <c r="O317" t="n">
+        <v>2</v>
+      </c>
+      <c r="P317" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>5</v>
+      </c>
+      <c r="R317" t="n">
+        <v>4</v>
+      </c>
+      <c r="S317" t="n">
+        <v>4</v>
+      </c>
+      <c r="T317" t="n">
+        <v>8</v>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Me enseñaron elementos valiosos como el Triple Bottom Line, Negocios Conscientes y el Capitalismo Consciente. Comprendí la importancia de darle valor a elementos ambientales y sociales, y no solo enfocarse en factores de generación económica. </t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45812.47732638889</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>a01383448@tec.mx</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H318" t="n">
+        <v>5</v>
+      </c>
+      <c r="I318" t="n">
+        <v>4</v>
+      </c>
+      <c r="J318" t="n">
+        <v>5</v>
+      </c>
+      <c r="K318" t="n">
+        <v>4</v>
+      </c>
+      <c r="L318" t="n">
+        <v>4</v>
+      </c>
+      <c r="M318" t="n">
+        <v>4</v>
+      </c>
+      <c r="N318" t="n">
+        <v>3</v>
+      </c>
+      <c r="O318" t="n">
+        <v>5</v>
+      </c>
+      <c r="P318" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>4</v>
+      </c>
+      <c r="R318" t="n">
+        <v>4</v>
+      </c>
+      <c r="S318" t="n">
+        <v>4</v>
+      </c>
+      <c r="T318" t="n">
+        <v>9</v>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nos enfocabamos mucho en hacer negocios conscientes y sostenibles </t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45812.47981481482</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>a00832886@tec.mx</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H319" t="n">
+        <v>3</v>
+      </c>
+      <c r="I319" t="n">
+        <v>3</v>
+      </c>
+      <c r="J319" t="n">
+        <v>4</v>
+      </c>
+      <c r="K319" t="n">
+        <v>3</v>
+      </c>
+      <c r="L319" t="n">
+        <v>3</v>
+      </c>
+      <c r="M319" t="n">
+        <v>3</v>
+      </c>
+      <c r="N319" t="n">
+        <v>4</v>
+      </c>
+      <c r="O319" t="n">
+        <v>3</v>
+      </c>
+      <c r="P319" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>3</v>
+      </c>
+      <c r="R319" t="n">
+        <v>4</v>
+      </c>
+      <c r="S319" t="n">
+        <v>4</v>
+      </c>
+      <c r="T319" t="n">
+        <v>7</v>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>Aprendí mucho sobre su importancia para el futuro, y las generaciones que siguen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45812.4805324074</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>a00833439@tec.mx</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H320" t="n">
+        <v>4</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3</v>
+      </c>
+      <c r="J320" t="n">
+        <v>5</v>
+      </c>
+      <c r="K320" t="n">
+        <v>2</v>
+      </c>
+      <c r="L320" t="n">
+        <v>4</v>
+      </c>
+      <c r="M320" t="n">
+        <v>5</v>
+      </c>
+      <c r="N320" t="n">
+        <v>3</v>
+      </c>
+      <c r="O320" t="n">
+        <v>4</v>
+      </c>
+      <c r="P320" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>4</v>
+      </c>
+      <c r="R320" t="n">
+        <v>4</v>
+      </c>
+      <c r="S320" t="n">
+        <v>4</v>
+      </c>
+      <c r="T320" t="n">
+        <v>9</v>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>Al principio pensaba que era solo un tema de cuidar el medio ambiente, pero ahora entiendo que también tiene que ver con cómo las empresas tratan a las personas, usan sus recursos y piensan en el futuro.
+Aprendí que una empresa puede ser responsable con el planeta y con la sociedad, y al mismo tiempo ser rentable. Ahora valoro mucho más tomar decisiones que no solo beneficien a la empresa, sino también al entorno y a la comunidad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45812.48222222222</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>a01284919@tec.mx</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>21 a 22 años</t>
+        </is>
+      </c>
+      <c r="H321" t="n">
+        <v>5</v>
+      </c>
+      <c r="I321" t="n">
+        <v>4</v>
+      </c>
+      <c r="J321" t="n">
+        <v>5</v>
+      </c>
+      <c r="K321" t="n">
+        <v>4</v>
+      </c>
+      <c r="L321" t="n">
+        <v>5</v>
+      </c>
+      <c r="M321" t="n">
+        <v>5</v>
+      </c>
+      <c r="N321" t="n">
+        <v>5</v>
+      </c>
+      <c r="O321" t="n">
+        <v>5</v>
+      </c>
+      <c r="P321" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>3</v>
+      </c>
+      <c r="R321" t="n">
+        <v>3</v>
+      </c>
+      <c r="S321" t="n">
+        <v>4</v>
+      </c>
+      <c r="T321" t="n">
+        <v>9</v>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gracias a los modelos de Triple Bottom Line, Canvas Social y Capitalismo Consciente, me hicieron comprender nuestro impacto como personas en el mundo, como nuestras acciones pueden generar cambios positivos en el medio ambiente y sociedad. Lo que nos deja a nosotros la responsabilidad como futuros líderes en organizaciones, de impulsar cambios conscientes que haga una a la sociedad un mejor lugar en el futuro </t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45812.49042824074</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>a01246690@tec.mx</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>LAET</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Mexicana</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>23 a 24 años</t>
+        </is>
+      </c>
+      <c r="H322" t="n">
+        <v>5</v>
+      </c>
+      <c r="I322" t="n">
+        <v>3</v>
+      </c>
+      <c r="J322" t="n">
+        <v>5</v>
+      </c>
+      <c r="K322" t="n">
+        <v>4</v>
+      </c>
+      <c r="L322" t="n">
+        <v>3</v>
+      </c>
+      <c r="M322" t="n">
+        <v>3</v>
+      </c>
+      <c r="N322" t="n">
+        <v>1</v>
+      </c>
+      <c r="O322" t="n">
+        <v>4</v>
+      </c>
+      <c r="P322" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>4</v>
+      </c>
+      <c r="R322" t="n">
+        <v>4</v>
+      </c>
+      <c r="S322" t="n">
+        <v>4</v>
+      </c>
+      <c r="T322" t="n">
+        <v>10</v>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considero que es un tema recurrente, y de gran valor, anterior a la carrera no lo logré escuchar con tanta frecuencia y creo que despues de estos 4 años de carrera logras comprender y normalizar que es un tema que debe estar presenta a la hora de implementar cualquier idea, ya se proyecto social, de innovación o de negocio. </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
